--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3409.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3409.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.34644671006434</v>
+        <v>2.018619775772095</v>
       </c>
       <c r="B1">
-        <v>1.631713664019466</v>
+        <v>6.237135887145996</v>
       </c>
       <c r="C1">
-        <v>2.216557665126007</v>
+        <v>3.238642692565918</v>
       </c>
       <c r="D1">
-        <v>5.328306713758344</v>
+        <v>1.402360320091248</v>
       </c>
       <c r="E1">
-        <v>3.37743220236241</v>
+        <v>0.9643964171409607</v>
       </c>
     </row>
   </sheetData>
